--- a/biology/Médecine/Hospital_Central/Hospital_Central.xlsx
+++ b/biology/Médecine/Hospital_Central/Hospital_Central.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hospital Central est une série médicale espagnole en 200 épisodes de 90 minutes diffusée entre le 30 avril 2000 et le 27 décembre 2012 sur Telecinco.
 Cette série est inédite dans tous les pays francophones.
@@ -512,9 +524,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette série médicale avait à cœur de traiter des sujets d'actualité des années 2000, comme la violence conjugale, la pauvreté, la banalisation de l'homosexualité, ou la privatisation de la santé[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette série médicale avait à cœur de traiter des sujets d'actualité des années 2000, comme la violence conjugale, la pauvreté, la banalisation de l'homosexualité, ou la privatisation de la santé.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Classement des acteurs en fonction du nombre d'épisodes dans lesquels ils sont apparus.
 </t>
@@ -574,11 +590,13 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La série devait s'appeler Línea Roja (« ligne rouge »), mais prend finalement son nom actuel plus clair[2]. Elle commence à être diffusée le 30 avril 2000.
-Elle compte une soixantaine d'acteurs fixes pour les rôles principaux ou récurrents, mais 4500 acteurs sont passés dans la série. Hospital Central détient en effet le record de longévité pour une série télévisée en Espagne[1].
-Elle connaît son record d'audience le 25 janvier 2005, avec 6 572 000 spectateurs[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La série devait s'appeler Línea Roja (« ligne rouge »), mais prend finalement son nom actuel plus clair. Elle commence à être diffusée le 30 avril 2000.
+Elle compte une soixantaine d'acteurs fixes pour les rôles principaux ou récurrents, mais 4500 acteurs sont passés dans la série. Hospital Central détient en effet le record de longévité pour une série télévisée en Espagne.
+Elle connaît son record d'audience le 25 janvier 2005, avec 6 572 000 spectateurs.
 </t>
         </is>
       </c>
@@ -607,10 +625,12 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Prix Ondas 2005 de la meilleure série espagnole[4]
-TP de Oro 2007 de la meilleure série nationale[5]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Prix Ondas 2005 de la meilleure série espagnole
+TP de Oro 2007 de la meilleure série nationale
 Prix Iris 2011</t>
         </is>
       </c>
